--- a/file/doc/需求/报表.xlsx
+++ b/file/doc/需求/报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="进仓货物报表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
   <si>
     <r>
       <rPr>
@@ -652,115 +652,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>混装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删单费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续页费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查货/商检费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代垫费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代垫税费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装卸单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸口费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、代垫税费=代垫费*6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出仓日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出仓箱数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入闸费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：1、入仓落货纸号、入仓号、车牌/柜号、入仓总箱数、入仓总体积、报关单数、报关费、续页费、闸口费从系统总抓取；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、代垫税费=代垫费*6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、装卸费=入仓总体积*装卸单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、装卸单价、分拣费、出仓报关费、查货/商检费、运输费、压车费、代垫费为输入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>卸货费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混装费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删单费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续页费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报关费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查货/商检费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代垫费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代垫税费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装卸单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闸口费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：1、入仓落货纸号、入仓号、车牌/柜号、入仓总箱数、入仓总体积、报关单数、报关费、续页费、闸口费从系统总抓取；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2、装卸单价、混装费、加班费、删单费、查货/商检费、运输费、压车费、代垫费为输入数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、代垫税费=代垫费*6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3、装卸费=入仓总体积*装卸单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出仓日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shpt NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输路线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柜型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出仓箱数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分拣费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、装卸单价、分拣费、出仓报关费、查货/商检费、运输费、压车费、代垫费为输入数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入闸费</t>
+    <t>装货费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1468,7 +1480,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2163,7 +2175,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2687,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2698,6 +2710,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -2729,43 +2742,43 @@
         <v>87</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="Q1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2938,22 +2951,22 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2966,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2983,61 +2996,61 @@
         <v>76</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>84</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>79</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3206,17 +3219,17 @@
         <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
